--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 2. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 2. komite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E354"/>
+  <dimension ref="A1:H354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Tescilli Adresi</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Şirket Türü</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Numarası</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Adı</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +497,21 @@
           <t>MANAVKUYU MAHALLESİ 613/2  SOK.  KÜÇÜKLER Apt. NO: 6 B BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -505,6 +535,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 372 SK. NO: 34/1A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -528,6 +573,21 @@
           <t>GÖLCÜK MH. MAHALLESİ 14005 SK. NO:16  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -551,6 +611,21 @@
           <t>HALKAPINAR MAHALLESİ 1203/1 SK NO:1/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,6 +649,21 @@
           <t xml:space="preserve"> 863 SOKAK NO:81  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -597,6 +687,21 @@
           <t xml:space="preserve"> KEMALPAŞA ORGANİZE SANAYİ BÖLGESİ 39 SOKAK NO:7  / </t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -620,6 +725,21 @@
           <t xml:space="preserve"> İSMET KAPTAN   1362   NO:55/62 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -643,6 +763,21 @@
           <t xml:space="preserve"> NARLI MAH. METİN OKTAY SK. ÇAĞRI NECİP NO: 13 NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -666,6 +801,21 @@
           <t xml:space="preserve"> AKDENİZ MAHALLESİ 1340 SK.  NO: 23/201  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -689,6 +839,21 @@
           <t xml:space="preserve"> SANAYİ CD. NO:69  ARMUTLU KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -712,6 +877,21 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ NO:41/101 MEGAPOL TOWER BAYRAKLI BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -735,6 +915,21 @@
           <t>ÇETİN EMEÇ MAHALLESİ UNIVERSİADE CAD. NO:27 OLİMPİYAT KÖYÜ SİTESİ 55.BLOK İÇ KAPI NO: 8  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -758,6 +953,21 @@
           <t xml:space="preserve"> 75.YIL CUMHURİYET MAHALLESİ OVA  SOKAK NO:9 /1 _ ADRES NO: 1423351673 OFİS VE İŞYERİ KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -781,6 +991,21 @@
           <t>AKDENİZ MAHALLESİ ŞEHİTFETHİ BEY CADDESİ NO:55 HERİS TOWER BLOK  İÇ KAPI NO: 091 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -804,6 +1029,21 @@
           <t xml:space="preserve"> OSMANGAZİ  MAH. 598 SK. İ.BİLGE SİTESİ NO: 2B BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -827,6 +1067,21 @@
           <t xml:space="preserve"> YÜZBAŞI ŞERAFETTİN MAH. 3959 SK. NO: 24A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -850,6 +1105,21 @@
           <t>YILDIZ MAHALLESİ 200/15 SK. NO:1/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -873,6 +1143,21 @@
           <t>KOZAĞAÇ                   MAHALLESİ 255 SK. NO:1/A/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -896,6 +1181,21 @@
           <t>VALİ RAHMİ BEY            MAHALLESİ MENDERES CAD. GÜLAY BLOK NO:107A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -919,6 +1219,21 @@
           <t xml:space="preserve"> ALAÇATI MAH. KEMALPAŞA CAD.  NO: 84A ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -942,6 +1257,21 @@
           <t xml:space="preserve"> 1203/1 SOK. NO:15  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -965,6 +1295,21 @@
           <t xml:space="preserve"> KONAK MAH. 859 SK. SARAY İŞHANI NO: 5 İÇ KAPI NO: 501 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -988,6 +1333,21 @@
           <t>ADATEPE MAHALLESİ YAHYA KEMAL BEYATLI CAD. NO:22  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1011,6 +1371,21 @@
           <t xml:space="preserve"> 1203/9 sokak NO:2/C  GIDA ÇARŞISI / İZMİR</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1034,6 +1409,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CADDESI NO:1448/A  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1057,6 +1447,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAHALLESİ İZMİR ANKARA ASFALTI CAD.  NO: 67/1  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1080,6 +1485,21 @@
           <t>KEMALPAŞA                 MAHALLESİ 7416 SOKAK NO:15/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1103,6 +1523,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239ZC  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1126,6 +1561,21 @@
           <t xml:space="preserve"> MENDERES MAH. VATAN CAD. NO: 42B GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1149,6 +1599,21 @@
           <t xml:space="preserve"> KÜLTÜR MAHALLESİ ATATÜRK CAD. ÜLKÜ APT.  NO: 214/3  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1172,6 +1637,21 @@
           <t>YENİ MAHALLESİ HALİTBAĞI KIRÜSTÜ KÜMEEVLER MEVKİİ NO:24/24-1  BAĞYURDU KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1195,6 +1675,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1203/9 SK. MEYVA İŞMERKEZİ NO: 1P KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1218,6 +1713,21 @@
           <t>KALABAK MAHALLESİ 3302 SK. NO: 13 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1241,6 +1751,21 @@
           <t xml:space="preserve"> PINARBAŞI  7004  NO:51 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1264,6 +1789,21 @@
           <t>BİRLİK                    MAHALLESİ KEMALPAŞA CADDESI NO: 231A  İÇ KAPI NO: A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1287,6 +1827,21 @@
           <t>EFELER                    MAHALLESİ MENDERES CADDESI  NO: 217 A/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1310,6 +1865,21 @@
           <t xml:space="preserve"> DEDEBAŞI MAH. 6116 SK. NO: 9 İÇ KAPI NO: 13 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1333,6 +1903,21 @@
           <t xml:space="preserve"> ATATÜRK MAH. 220 SK. NO: 7A İÇ KAPI NO: A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1356,6 +1941,21 @@
           <t>KEMALPAŞA                 MAHALLESİ 7102 SOKAK NO:6  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1379,6 +1979,21 @@
           <t>LALE                      MAHALLESİ 3594 SOKAK NO:5/B  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1402,6 +2017,21 @@
           <t xml:space="preserve"> İTOB OSB MAH. İTOB ATATÜRK CAD. NO: 11 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1425,6 +2055,21 @@
           <t xml:space="preserve"> İTOB ORGANİZE SANAYİ BÖLGESİ EKREM DEMİRTAŞ   NO:12 MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1448,6 +2093,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3804 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1467,6 +2127,21 @@
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1490,6 +2165,21 @@
           <t xml:space="preserve"> 1202/6 SK. NO:46  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1513,6 +2203,21 @@
           <t xml:space="preserve"> R.ŞEVKET İNCE MAH. 2148/11 SK. ANA HASTANE 1 NOLU BLOK NO: 3 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1536,6 +2241,21 @@
           <t>ÜÇKUYULAR MAHALLESİ 69  SOKAK NO:27/7  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1559,6 +2279,21 @@
           <t xml:space="preserve"> TUNA MAH. 1710 SK. ERKMEN BLOK  NO: 26A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1582,6 +2317,21 @@
           <t xml:space="preserve"> ÇITAK SOKAK NO:12  KAVAKLIDERE BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1605,6 +2355,21 @@
           <t>CAMİKEBİR                 MAHALLESİ 84/3 SK. NO:10  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1628,6 +2393,21 @@
           <t>DÜZCE MAHALLESİ HÜRRİYET CAD. NO:27  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1651,6 +2431,21 @@
           <t>TELEFERİK                 MAHALLESİ SAKARYA CADDESI NO:21/B  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1674,6 +2469,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 283/14 SK. A.A. İNCE SİTESİ NO: 4 İÇ KAPI NO: 20 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1697,6 +2507,21 @@
           <t xml:space="preserve"> ZAFER SB MAHALLESİ AYFER SK.  NO: 13/--  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1720,6 +2545,21 @@
           <t xml:space="preserve"> KONAK MAH. 878 SK.  NO: 34  İÇ KAPI NO: MÜSTAKİL KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1743,6 +2583,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAH. 6169 SK.  NO: 8  İÇ KAPI NO: 22 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1766,6 +2621,21 @@
           <t>YALI                      MAHALLESİ 6499 SK. NO: 3 A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1789,6 +2659,21 @@
           <t>YUNUS EMRE MAHALLESİ ŞEHİT PİLOT VOLKAN KOÇYİĞİT BULVARI NO: 17  İÇ KAPI NO: 101 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1812,6 +2697,21 @@
           <t xml:space="preserve"> AOSB MAHALLESİ 10025 SK.  NO: 12/0  ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1835,6 +2735,21 @@
           <t>AOSB MAHALLESİ 10016 SK. NO: 33 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1854,6 +2769,21 @@
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1877,6 +2807,21 @@
           <t xml:space="preserve"> İTOB OSB MAH. 10014 SK. BİZEX NO: 13 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1900,6 +2845,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1923,6 +2883,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. 8001/3 SK. NO: 51 İÇ KAPI NO: 9 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1946,6 +2921,21 @@
           <t xml:space="preserve"> ÖREN 75.YIL CUMHURİYET MAH. NİF ÇAYI SK. İDARİ BİNA VE İŞLETME NO: 13 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1969,6 +2959,21 @@
           <t>CUMHURİYET MAHALLESİ NO:128/1 OVA KÜMLERİ MEVKİİ ÖREN KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1992,6 +2997,21 @@
           <t xml:space="preserve"> CUMHURİYET BULVARI NO:26 CUMHURİYET İŞ HANI KAT:7 DAİRE:713 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2015,6 +3035,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 286 SK.  NO: 5B BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2038,6 +3073,21 @@
           <t>AOSB MAHALLESİ M.KEMAL ATATÜRK BLV. ADNAN CİNSTAŞ APT. NO: 6 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2061,6 +3111,21 @@
           <t xml:space="preserve"> 1717 SOK. NO:46 KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2084,6 +3149,21 @@
           <t>YALI                      MAHALLESİ 6522 SK. NO:3 HİLLTOVVN AVM Sit.  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2107,6 +3187,21 @@
           <t>KAZIMDİRİK MAHALLESİ 233 SOKAK 101 EVLER APT. NO: 1 B BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2130,6 +3225,21 @@
           <t xml:space="preserve"> ŞEHİT FETHİBEY CADDESİ NO:27/B  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2153,6 +3263,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. MÜRSELPAŞA BUL. NO: 166B KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2176,6 +3301,21 @@
           <t xml:space="preserve"> GÜZELYALI MAH. MİTHATPAŞA CAD. NO: 965C KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2199,6 +3339,21 @@
           <t xml:space="preserve"> ARAP HASAN MAH. İNÖNÜ CAD. NO: 319C İÇ KAPI NO: C KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2222,6 +3377,21 @@
           <t>BASIN SİTESİ MAHALLESİ İNÖNÜ CAD. NO: 379 B KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2245,6 +3415,21 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULV. NO:26/221  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2268,6 +3453,21 @@
           <t xml:space="preserve"> YİĞİTLER MAH. MENDERES CAD. BAYRAKLI NO: 234B BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2291,6 +3491,21 @@
           <t xml:space="preserve"> 10006 SOKAK NO:29  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2314,6 +3529,21 @@
           <t>KARACAOĞLAN MAHALLESİ 6159 SOK. MEHMET EMİN ARSLAN İŞ MERKEZİ Sit. B Apt.  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2337,6 +3567,21 @@
           <t>KARACAOĞLAN MAHALLESİ BORNOVA CAD. NO:9/6D  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2360,6 +3605,21 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO: 39  İÇ KAPI NO: 2511 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2383,6 +3643,21 @@
           <t>ÇINARLI MAHALLESİ 1572 SK. NO:33  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2406,6 +3681,21 @@
           <t>ŞEMİKLER MAHALLESİ ORDU BULVARI  NO: 183A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2429,6 +3719,21 @@
           <t xml:space="preserve"> DEDEBAŞI MAH. ORDU BUL. NO: 99A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2452,6 +3757,21 @@
           <t>SOĞUKKUYU MAHALLESİ GİRNE BULVARI SARI ZEYBEK BLOK  NO: 218A BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2475,6 +3795,21 @@
           <t xml:space="preserve"> IŞIKLAR MAH. 6016/6 SK. NO: 7 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2498,6 +3833,21 @@
           <t xml:space="preserve"> 7408/1 SOKAK NO:4  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2521,6 +3871,21 @@
           <t>TUNA MAHALLESİ İBRAHİM YILMAZ SOKAK NO:23/A İŞHANI BLOK   KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2544,6 +3909,21 @@
           <t xml:space="preserve"> 853 SOKAK NO:12/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2567,6 +3947,21 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ 502 SK. NO:23/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2590,6 +3985,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAH. 1145/1 SK.  NO: 46A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2613,6 +4023,21 @@
           <t>ALPASLAN MAHALLESİ 1620/1  SOK. İNŞAAT BLOK  NO: 36A BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2636,6 +4061,21 @@
           <t xml:space="preserve"> SEKİZ EYLÜL MAH. 5012 SK. DEPO NO: 30/3 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2659,6 +4099,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAHALLESİ 1145/4 SK.  NO: 6 A/A  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2682,6 +4137,21 @@
           <t>YALI                      MAHALLESİ 6404 SK. NO:17  DAİRE:2 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2705,6 +4175,21 @@
           <t>YENİKENT MAHALLESİ 75. YIL CUMHURİYET CD NO:134/2  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2728,6 +4213,21 @@
           <t>ULAMIŞ MAHALLESİ ARAPLAR KÜME EVLERİ NO:62  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2751,6 +4251,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT.  NO: 39/3408  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2774,6 +4289,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL.  NO: 12/2 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2797,6 +4327,21 @@
           <t>KAZIMDİRİK MAHALLESİ 296/2 SK. NO:33  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2820,6 +4365,21 @@
           <t>AKDENİZ                   MAHALLESİ ŞEHİT FETHİBEY CADDESİ NO:55 HERİS TOWER BLOK  İÇ KAPI NO: 091 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2843,6 +4403,21 @@
           <t xml:space="preserve"> SAKARYA MAH. 803 SK. NO: 23 İÇ KAPI NO: A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2866,6 +4441,21 @@
           <t xml:space="preserve"> BARBAROS MAH. 5454/4 SK.  NO: 1A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2889,6 +4479,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAHALLESİ 7403 SK.  NO: 18/1  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2912,6 +4517,21 @@
           <t>AKDENİZ                   MAHALLESİ 1338 SOKAK Ş. ŞÜKRÜ İŞHANI BLOK  NO: 1  İÇ KAPI NO: 403  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2935,6 +4555,21 @@
           <t xml:space="preserve"> YENİ MAHALLESİ HAYITLIK MEVKİİ ( KÜME EVLER )  NO: 5/1  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2958,6 +4593,21 @@
           <t>GÜMÜŞPALA MAHALLESİ 7042  SOK. NO:31/1  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2981,6 +4631,21 @@
           <t xml:space="preserve"> 75.YIL CUMHURİYET MAHALLESİ İZMİR ANKARA CAD.  NO: 12/1  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3004,6 +4669,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3027,6 +4707,21 @@
           <t xml:space="preserve"> GÜNALTAY MAH. 4742/1 SK. NO: 24A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3050,6 +4745,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1203/9 SK. MEYVA İŞMERKEZİ BLOK  NO: 1A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3073,6 +4783,21 @@
           <t xml:space="preserve"> 268 SK. NO:58/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3096,6 +4821,21 @@
           <t xml:space="preserve"> AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CAD.  NO: 55/091  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3119,6 +4859,21 @@
           <t>HALKAPINAR                MAHALLESİ 1203/11 SOKAK  NO: 5-7  İÇ KAPI NO: 211 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3142,6 +4897,21 @@
           <t xml:space="preserve"> IRMAK  38/7  NO:14/A GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3165,6 +4935,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3188,6 +4973,21 @@
           <t xml:space="preserve"> DONANMACI MAH. HÜSEYİN ÇAĞLAYAN SK. NO: 38B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3211,6 +5011,21 @@
           <t xml:space="preserve"> MEHMET AKİF ERSOY MAH. 2. ÖTEYAKA KÜME EVLERİ NO: 11 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3234,6 +5049,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3253,6 +5083,21 @@
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3276,6 +5121,21 @@
           <t>SİNANCILAR MAHALLESİ NO:357 SİNANCILARKÖYYOLU( KÜME EVLER )18738725 SİT. KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3299,6 +5159,21 @@
           <t xml:space="preserve"> 14000 SOKAK MUHTARLIK OFİSİ BİTİŞİĞİ GÖLCÜK KÖYÜ SEFERİHİSAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3322,6 +5197,21 @@
           <t>ADALET MAH. MAHALLESİ MANAS BLV  NO: 39  İÇ KAPI NO: 2511  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3345,6 +5235,21 @@
           <t>YALI                      MAHALLESİ 6497 SK. NO:25  KAT:2 DAİRE:3 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3368,6 +5273,21 @@
           <t>ZAFER SB MAHALLESİ MÜMTAZ SOKAK NO:17  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3391,6 +5311,21 @@
           <t xml:space="preserve"> MEHMET AKİF ERSOY MAHALLESİ 2. ÖTEYAKA ( KÜME EVLER )  NO: 39  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3414,6 +5349,21 @@
           <t xml:space="preserve"> GAZİ BULV. NO:116/705 CENGİZ HAN İŞ HANI BASMANE KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3437,6 +5387,21 @@
           <t>AKDENİZ                   MAHALLESİ CUMHURİYET BULVARI AYTEKIN IŞ MERKEZI Apt.  NO: 71/401 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3460,6 +5425,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6108 SK. F.1 NO: 49/5J BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3483,6 +5463,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAHALLESİ 6167 SK. A BLOK APT.  NO: 30 B/_  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3506,6 +5501,21 @@
           <t xml:space="preserve"> BAHRİYE ÜÇOK MAH. ATATÜRK BUL. NO: 49 İÇ KAPI NO: 2 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3529,6 +5539,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 286/3 SK.  NO: 14B BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3552,6 +5577,21 @@
           <t xml:space="preserve"> EGE SERBEST BÖLGESİ ZAFER SB.  MÜMTAZ  NO:NO.16 GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3575,6 +5615,21 @@
           <t>BAĞYURDU YENİ MAHALLESİ OVA YOLU KÜME EVLERİ NO: 78  İÇ KAPI NO: 1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3598,6 +5653,21 @@
           <t xml:space="preserve"> ZAFER SB MAHALLESİ NİLÜFER SK.  NO: 15  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3621,6 +5691,21 @@
           <t>ÇINARKÖY MAHALLESİ KEMALPAŞA ÇINARKÖY CADDESİ NO:2/A/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3644,6 +5729,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAHALLESİ FEVZİ ÇAKMAK CAD. TÜREGÜN İŞHANI SİT.  NO: 2 A  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3667,6 +5767,21 @@
           <t xml:space="preserve"> 3168     BOZYAKA   NO:12/B KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3690,6 +5805,21 @@
           <t xml:space="preserve"> BAHARİYE MAH. DOÇ. DR. BAHRİYE ÜÇOK BUL. NAZİFE BLOK  NO: 4  İÇ KAPI NO: 10 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3713,6 +5843,21 @@
           <t>BAĞYURDU YENİ MAHALLESİ İZMİR ANKARA CAD. NO: 4/1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3736,6 +5881,21 @@
           <t>MANSUROĞLU MAHALLESİ 286/1  SOK. NO:15/23 VERAPOL PLAZA BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3759,6 +5919,21 @@
           <t xml:space="preserve"> TUNA MAHALLESİ 5501  SOKAK NO:8 A /- _ ADRES NO: 2898100579 OFİS VE İŞYERİ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3782,6 +5957,21 @@
           <t xml:space="preserve"> TUNA MAHALLESİ 5501 SK. NO: 10 A/ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3805,6 +5995,21 @@
           <t xml:space="preserve"> HACI İSA MAH. 75.YIL CUMHURİYET CAD. NO: 9 İÇ KAPI NO: 6 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3828,6 +6033,21 @@
           <t xml:space="preserve"> BAĞYURDU YENİ MAH. OVA YOLU KÜME EVLERİ NO: 7/3A KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3851,6 +6071,21 @@
           <t>KÜLTÜR MAHALLESİ DR.MUSTAFA ENVER BEY CADDESİ ONUR BLOK  NO: 5B  İÇ KAPI NO: 5B KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3874,6 +6109,21 @@
           <t>KARACAOĞLAN MAHALLESİ 6172 SK NO:16/2  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3897,6 +6147,21 @@
           <t xml:space="preserve"> İÇMELER MAHALLESİ 1165/1 SK. NO: 21/ URLA/İZM URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3920,6 +6185,21 @@
           <t xml:space="preserve"> 1362 SOKAK NO:55/62  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3943,6 +6223,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. 1810 SK. BAHTİYAR NO: 4B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3966,6 +6261,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. 6346 SK. AYATA NO: 24 İÇ KAPI NO: 2 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3989,6 +6299,21 @@
           <t>KAZIMDİRİK MAHALLESİ 284 SK. NO:2/715  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4012,6 +6337,21 @@
           <t xml:space="preserve"> 10001 SOK. NO:27  A.O.S.B. ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4035,6 +6375,21 @@
           <t xml:space="preserve"> DEDEBAŞI MAH. ALİ ALP BÖKE CAD. EFELER BLOK  NO: 153 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4058,6 +6413,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4081,6 +6451,21 @@
           <t xml:space="preserve"> KOŞUKAVAK MAH. 4218/1 SK. C BLOK NO: 1D BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4104,6 +6489,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4127,6 +6527,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1248 SOKAK NO:6/C  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4150,6 +6565,21 @@
           <t xml:space="preserve"> ÖREN 75.YIL CUMHURİYET MAHALLESİ OVA SOKAK NO:9 35733  NO:/ KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4173,6 +6603,21 @@
           <t xml:space="preserve"> ÖREN 75. YIL CUMHURİYET MAH. OVA SOK. NO:9 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4196,6 +6641,21 @@
           <t>HALKAPINAR MAHALLESİ 1203/1 SK NO: 13A  İÇ KAPI NO: A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4219,6 +6679,21 @@
           <t>ATIFBEY MAHALLESİ 12 SK. NO:1/A  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4242,6 +6717,21 @@
           <t xml:space="preserve"> MAVİŞEHİR MAH. AZİZ NESİN BUL. NO: 26 İÇ KAPI NO: 123 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4265,6 +6755,21 @@
           <t>KONAK                     MAHALLESİ 873 SOKAK NO:15/C  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4288,6 +6793,21 @@
           <t xml:space="preserve"> 869/1 SK. NO:5/1-A  ŞİRİNYER BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4311,6 +6831,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1145 SOKAK NO: 12 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4334,6 +6869,21 @@
           <t>ATİLLA                    MAHALLESİ EŞREFPAŞA CADDESİ NO:308/B/0  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4357,6 +6907,21 @@
           <t>ZAFER SB MAH MAHALLESİ NİLÜFER SK NO:12  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4380,6 +6945,21 @@
           <t>KÖRFEZ MAHALLESİ 7383/2 SK. İDARECİLER SİTESİ C5 BLOK  NO: 1M DAİRE:16 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4403,6 +6983,21 @@
           <t>UĞUR MUMCU                MAHALLESİ 8965 SK. NO:2/A  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4422,6 +7017,21 @@
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4445,6 +7055,21 @@
           <t>85. YIL CUMHURİYET MAHALLESİ SANAYİ CADDESİ NO:61/1-2  ARMUTLU KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4468,6 +7093,21 @@
           <t>SİTELER MAHALLESİ MİTHATPAŞA CAD. NO:673/A  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4491,6 +7131,21 @@
           <t xml:space="preserve"> 10016 SOKAK NO:33  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4514,6 +7169,21 @@
           <t>ZAFER SB MAHALLESİ GÜNDÜZ SOK. NO: 20  İÇ KAPI NO: 8 GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4537,6 +7207,21 @@
           <t>BARBAROS MAHALLESİ KUVA-İ MİLLİYE CD. NO:77  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4560,6 +7245,21 @@
           <t xml:space="preserve"> 1202 SOKAK NO:136/B  GIDA ÇARŞISI KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4583,6 +7283,21 @@
           <t>ALSANCAK MAHALLESİ ATATÜRK CAD. KATİPOĞLU Apt.  NO: 372 /1/2   KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4606,6 +7321,21 @@
           <t>BAHÇELİEVLER              MAHALLESİ  DOÇ. DR. BAHRİYE ÜÇOK BULVARI ATAÇELEBİ BLOK  NO: 30A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4629,6 +7359,21 @@
           <t>KAZIMDİRİK MAHALLESİ MUSTAFA KEMAL CADDESI NO:139/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4652,6 +7397,21 @@
           <t xml:space="preserve"> BAYRAKLI MAH. ORD. PROF. DR. EKREM AKURGAL SK. ORKİDE NO: 33 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4675,6 +7435,21 @@
           <t>GÖKDERE MAHALLESİ GÖKDERE CAD. NO:27/3  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4698,6 +7473,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ ANSIZCA SANAYİ SİTESİ (KÜME EVLER) NO: 303 /1-/- KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4721,6 +7511,21 @@
           <t xml:space="preserve"> KILIÇ REİS MAH. 304 SK. NO: 56A İÇ KAPI NO: A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4744,6 +7549,21 @@
           <t xml:space="preserve"> EMEK MAH. 7243 SK.  NO: 6  İÇ KAPI NO: 1 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4767,6 +7587,21 @@
           <t xml:space="preserve"> HACI İSA MAH. 75.YIL CUMHURİYET CAD. NO: 5 İÇ KAPI NO: 2 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4790,6 +7625,21 @@
           <t xml:space="preserve"> ERZENE MAH. GENÇLİK CAD.  NO: 11 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4813,6 +7663,21 @@
           <t>GÜRPINAR MAHALLESİ 7232/9 SK. NO:23/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4836,6 +7701,21 @@
           <t xml:space="preserve"> AOSB MAHALLESİ 10006/1 SK. İZLAB APT.  NO: 2/0  ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4859,6 +7739,21 @@
           <t xml:space="preserve"> ARMUTLU 85.YIL CUMHURİYET MAHALLESİ SANAYİ CAD.  NO: 29/1  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4882,6 +7777,21 @@
           <t>85. YIL CUMHURİYET MAHALLESİ SANAYİ CADDESİ NO:29/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4905,6 +7815,21 @@
           <t xml:space="preserve"> ATATÜRK MAHALLESİ 27 SOK. NO:7  ULUCAK KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4928,6 +7853,21 @@
           <t xml:space="preserve"> LATİFE HANIM MAH. 7683 SK.  NO: 18 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4951,6 +7891,21 @@
           <t>YENİ GÜN MAHALLESİ GAZİOSMAN PAŞA BLV. NO:84/G TEZCAN İŞHANI BLOK   KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4974,6 +7929,21 @@
           <t>DONANMACI                 MAHALLESİ CEMAL GÜRSEL CADDESİ NO:240/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4997,6 +7967,21 @@
           <t xml:space="preserve"> 883 SOKAK NO:6 KEMERALTI -       NO:/ KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5020,6 +8005,21 @@
           <t xml:space="preserve"> 1203/11 SOK. NO:2/202  HALKAPINAR / İZMİR</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5043,6 +8043,21 @@
           <t xml:space="preserve"> NO:2  BAĞYURDU KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5066,6 +8081,21 @@
           <t>DEDEBAŞI                  MAHALLESİ 6120 SK. KEZBAN ŞEN Apt.  NO: 3 A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5089,6 +8119,21 @@
           <t xml:space="preserve"> YUNUS EMRE MAH. 7408/6 SK. NO: 43/4 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5112,6 +8157,21 @@
           <t xml:space="preserve"> 533 SOK. NO:6/B  ÇAMDİBİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5135,6 +8195,21 @@
           <t xml:space="preserve"> 5615 SOKAK NO:8  ÇAMDİBİ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5154,6 +8229,21 @@
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5177,6 +8267,21 @@
           <t>İTOB OSB MAHALLESİ 10007 SK. NO:7  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5200,6 +8305,21 @@
           <t>YALI MAHALLESİ CAHER DUDAYEV BULVARI NO:119/C NUR Apt.   KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5223,6 +8343,21 @@
           <t>YENİGÜN                   MAHALLESİ GAZİOSMANPAŞA BULVARI NO:86  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5246,6 +8381,21 @@
           <t>RAFETPAŞA                 MAHALLESİ 5368 SOKAK NO:6/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5269,6 +8419,21 @@
           <t xml:space="preserve"> ARAP HASAN MAH. İNÖNÜ CAD. NO: 309B İÇ KAPI NO: B KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5292,6 +8457,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. PLEVNE BUL. GELİNCİK NO: 36A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5315,6 +8495,21 @@
           <t xml:space="preserve"> GÖZTEPE MAH. MİTHATPAŞA CAD. SEVİM NO: 881B KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5338,6 +8533,21 @@
           <t xml:space="preserve"> ÖREN 75.YIL CUMHURİYET MAH. OVA SK. NO: 9 İÇ KAPI NO: 2 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5361,6 +8571,21 @@
           <t xml:space="preserve"> ÖREN 75.YIL CUMHURİYET MAH. OVA SK. NO: 9 İÇ KAPI NO: 2 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5384,6 +8609,21 @@
           <t xml:space="preserve"> ÖREN 75.YIL CUMHURİYET MAH. OVA SK. NO: 9 İÇ KAPI NO: 2 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5407,6 +8647,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. CEMAL BÜLBÜL SK. PEKŞEN NO: 21B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5430,6 +8685,21 @@
           <t xml:space="preserve"> SEYHAN MAH. AYDIN HATBOYU CAD.  NO: 536 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5453,6 +8723,21 @@
           <t>BAHÇELİEVLER              MAHALLESİ ANADOLU CADDESİ NO: 323  İÇ KAPI NO: 20 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5476,6 +8761,21 @@
           <t xml:space="preserve"> GÖLCÜKLER MAH. İSTASYON CAD.  NO: 38/1 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5499,6 +8799,21 @@
           <t xml:space="preserve"> FEVZİPAŞA BULVARI NO:17  KAT:2 DAİRE:203 / İZMİR</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5522,6 +8837,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. İZMİR ANKARA CAD. NO: 47 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5545,6 +8875,21 @@
           <t xml:space="preserve"> YENİ  KÜMELER  NO:6    6/1    6/1-A KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5568,6 +8913,21 @@
           <t xml:space="preserve"> 10001 SOK. NO:25  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5591,6 +8951,21 @@
           <t xml:space="preserve"> EROL SK NO:10  EGE SERBEST BÖLGESİ GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5614,6 +8989,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1145/4 SOKAK NO: 22 A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5637,6 +9027,21 @@
           <t xml:space="preserve"> MERSİNLİ MAHALLESİ 1201/1 SK.  NO: 2/10  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5660,6 +9065,21 @@
           <t xml:space="preserve"> ADNAN KAHVECİ       ŞİRİNYER  NO:73/B/ BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5683,6 +9103,21 @@
           <t>ULUCAK CUMHURİYET MAHALLESİ 9085 SK. NO: 4/1   KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5706,6 +9141,21 @@
           <t>KORUTÜRK MAHALLESİ TAYFUN SOK. NO: 3  İÇ KAPI NO: 2 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5729,6 +9179,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47A BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5752,6 +9217,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/2 SOKAK NO:6/C  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5775,6 +9255,21 @@
           <t xml:space="preserve"> AKALAN ANKARA   NO:26B KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5798,6 +9293,21 @@
           <t xml:space="preserve"> BUCAOSB MAHALLESİ 2/22 SK.  NO: 7/0  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5821,6 +9331,21 @@
           <t xml:space="preserve"> NARLI MAH. MİTHATPAŞA CAD. HAYRİYE NO: 331 NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5844,6 +9369,21 @@
           <t xml:space="preserve"> KONAK MAH. 846 SK. TEKANT İŞHANI BLOK  NO: 44  İÇ KAPI NO: 41 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5867,6 +9407,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAHALLESİ İZMİR ANKARA ASFALTI CAD.  NO: 65/1  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5890,6 +9445,21 @@
           <t xml:space="preserve"> HALKAPINAR  1202/6  NO:8 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5913,6 +9483,21 @@
           <t xml:space="preserve"> ALTINTAŞ MAHALLESİ ZAFER CAD. A BLOK APT.  NO: 153 A  URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5936,6 +9521,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1145/2 SOKAK NO:25/C  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5959,6 +9559,21 @@
           <t>GÜRPINAR MAHALLESİ 7236 SK NO:54/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5982,6 +9597,21 @@
           <t xml:space="preserve"> ATATÜRK.CAD. NO:150  KAT:2 DAİRE:2 PASAPORT KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -6005,6 +9635,21 @@
           <t xml:space="preserve"> SANAT CADDESI NO:45  ÇAMDİBİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6028,6 +9673,21 @@
           <t>MANSUROĞLU MAHALLESİ 295/2 SOK. NO:1/2 EGE SUN PLAZA BLOK  İÇ KAPI NO: 37 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6051,6 +9711,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAHALLESİ 295/2 SK.  NO: 1 /2/53  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6074,6 +9749,21 @@
           <t xml:space="preserve"> 1202 SOKAK NO:144/A  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6097,6 +9787,21 @@
           <t>KAZIMDİRİK MAHALLESİ 284 SK. NO:2/715  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6120,6 +9825,21 @@
           <t xml:space="preserve"> EVKA-5 MAH. 8809 SK. YEŞİL İZMİR TİCARET MERKEZİ NO: 141 İÇ KAPI NO: 1B22 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6143,6 +9863,21 @@
           <t>ÇAMLIKULE MAHALLESİ GAZETECİ YAZAR İSMAİL SİVRİ BULV. NO:145/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6166,6 +9901,21 @@
           <t xml:space="preserve"> KASIMPAŞA MAHALLESİ ATATÜRK CAD.  NO: 99/11  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6189,6 +9939,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6212,6 +9977,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAH. 7405 SK. AYHAN ŞAHİN SİTESİ NO: 8 İÇ KAPI NO: 11 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6235,6 +10015,21 @@
           <t xml:space="preserve"> M.FEVZİ ÇAKMAK MAH. 4102 SK. CAN YUVA SİTESİ CAN YUVA BLOK  NO: 39/10 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6258,6 +10053,21 @@
           <t xml:space="preserve"> ONUR MAH. ATA CAD. ÖZCAN NO: 112A BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6281,6 +10091,21 @@
           <t xml:space="preserve"> ÇINAR MAH. 5003/2 SK. NO: 8 İÇ KAPI NO: 29 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6304,6 +10129,21 @@
           <t xml:space="preserve"> YENİGÜN MAH. 254 SK. ARZUM NO: 22A İÇ KAPI NO: A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6327,6 +10167,21 @@
           <t xml:space="preserve"> GAZİ OSMAN PAŞA MAH. 5227 SK. HACI MEFAİL OĞULLARI NO: 67A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6350,6 +10205,21 @@
           <t xml:space="preserve"> SEVGİ MAH. ESKİİZMİR CAD. NO: 317A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6373,6 +10243,21 @@
           <t xml:space="preserve"> ATİLLA MAH. EŞREFPAŞA CAD. KARADOĞAN NO: 362A İÇ KAPI NO: A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6396,6 +10281,21 @@
           <t xml:space="preserve"> 75. YIL CUMHURİYET MAHALLESİ KOCABAĞLAR SOK. NO:15  ÖREN KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6419,6 +10319,21 @@
           <t xml:space="preserve"> 1202/2 SOKAK NO:50/52 GIDA ÇARŞISI YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6442,6 +10357,21 @@
           <t xml:space="preserve"> 1202/6 SOKAK NO:42  GIDA ÇARŞISI / İZMİR</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6465,6 +10395,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/6 SOKAK NO:5/K  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6488,6 +10433,21 @@
           <t xml:space="preserve"> ERGENE MAH. 552/2 SK. ATAK NO: 1B BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6511,6 +10471,21 @@
           <t>IRMAK                     MAHALLESİ 97 SOKAK NO:27/1  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6534,6 +10509,21 @@
           <t xml:space="preserve"> YALI MAH. 6522 SK. NO: 3 İÇ KAPI NO: Z138 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6557,6 +10547,21 @@
           <t xml:space="preserve"> BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ  MERKEZİ NO: 103 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6580,6 +10585,21 @@
           <t xml:space="preserve"> AOSB MAH. 10006/1 SK.  NO: 2 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6603,6 +10623,21 @@
           <t>KÜLTÜR                    MAHALLESİ ZUHAL YORGANCIOĞLU SK. HANAY Apt.  NO: 11/5 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6626,6 +10661,21 @@
           <t xml:space="preserve"> 1378 SOKAK NO:6/A  DAİRE:19 ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6649,6 +10699,21 @@
           <t xml:space="preserve"> ÖREN 75.YIL CUMHURİYET MAH. ÖREN CUMHURİYET MEY. NO: 13 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6672,6 +10737,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. ATATÜRK CAD. ANADOLU SIGORTA BLOK  NO: 92  İÇ KAPI NO: 41 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6695,6 +10775,21 @@
           <t xml:space="preserve">AKDENİZ                   MAHALLESİ ATATÜRK CADDESİ  ANADOLU SIGORTA BLOK  NO: 92  İÇ KAPI NO: 41 KONAK           / </t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6718,6 +10813,21 @@
           <t xml:space="preserve"> ÜMİT MAH. KEMALPAŞA CAD. NO: 341 İÇ KAPI NO: Z1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -6741,6 +10851,21 @@
           <t>ADALET MAHALLESİ MANAS BLV.  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -6764,6 +10889,21 @@
           <t>ALAÇATI MAHALLESİ 12048 SK. NO: 1 ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6787,6 +10927,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39  İÇ KAPI NO: 3408 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6810,6 +10965,21 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ 1. ÖTEKAYA SOKAK NO:65/a  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6833,6 +11003,21 @@
           <t xml:space="preserve"> 858 SOKAK NO:9/105 PAYKOÇ İŞHANI KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6856,6 +11041,21 @@
           <t xml:space="preserve"> YUKARIKIZILCA MAHALLESİ NO:19 ATATÜRK KÜMEEVLER KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6879,6 +11079,21 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1  SOK. NO: 6  İÇ KAPI NO: 41 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6902,6 +11117,21 @@
           <t xml:space="preserve"> TEPECİK MAH. KAVAKDERE CAD. ÇOBANLAR NARENCİYE BLOK  NO: 66 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6925,6 +11155,21 @@
           <t>ZAFER SB MAHALLESİ MÜMTAZ SOKAK NO:13  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6948,6 +11193,21 @@
           <t xml:space="preserve"> AKDENİZ  1353  NO:1/106 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6967,6 +11227,21 @@
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6990,6 +11265,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1145/2 SOKAK NO:38  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -7013,6 +11303,21 @@
           <t xml:space="preserve"> SERİNTEPE MAH. KEMALPAŞA CAD. NO: 88A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7036,6 +11341,21 @@
           <t xml:space="preserve"> KOCATEPE MAH. EŞREFPAŞA CAD. NO: 317 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7059,6 +11379,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1202/6 SK. NO: 5F KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7082,6 +11417,21 @@
           <t xml:space="preserve"> ÇAMTEPE MAH. MİTHATPAŞA CAD. NO: 281A NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7105,6 +11455,21 @@
           <t>POLİGON MAHALLESİ İHSAN ALYANAK BLV. NO: 20D KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7124,6 +11489,21 @@
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7147,6 +11527,21 @@
           <t xml:space="preserve"> 1202/6 SK. NO:36  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7170,6 +11565,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAHALLESİ 1145/5 SK.  NO: 2  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7193,6 +11603,21 @@
           <t>BAHARİYE                  MAHALLESİ 1875 SK. ERKAN BLOK  NO: 6B KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7216,6 +11641,21 @@
           <t xml:space="preserve"> SÜTÇÜLER MAH. KOCATEPE CAD.   NO:16 A KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7239,6 +11679,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1145/4 SOKAK NO: 6/301  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7262,6 +11717,21 @@
           <t xml:space="preserve"> AKDENİZ MAHALLESİ CUMHURİYET BLV. PAMUK PLAZA APT.  NO: 45/7  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -7281,6 +11751,21 @@
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -7304,6 +11789,21 @@
           <t>ÇETİN EMEÇ MAHALLESİ UĞUR MUMCU CADDESI TURKUAZ SİTESİ  NO: 40/6  İÇ KAPI NO: 6 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -7327,6 +11827,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. ŞEHİT FETHİBEY CAD. PAMUK İŞHANI BLOK  NO: 32  İÇ KAPI NO: 401 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -7350,6 +11865,21 @@
           <t>YİĞİTLER                  MAHALLESİ MENDERES CADDESI NO:238/B  ŞİRİNYER / İZMİR</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -7373,6 +11903,21 @@
           <t>ALAÇATI MAHALLESİ KEMALPAŞA CAD. BUFE Apt.  NO: 61 A  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -7396,6 +11941,21 @@
           <t xml:space="preserve"> KIBRIS ŞEHİTLERİ CADDESİ NO:1  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -7419,6 +11979,21 @@
           <t>KAZIMDİRİK MAHALLESİ MUSTAFA KEMAL CADDESI SAGUN BLOK  NO: 25B BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -7442,6 +12017,21 @@
           <t>İNKILAP MAHALLESİ MEHMET AKİF CAD.  NO: 25B BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -7465,6 +12055,21 @@
           <t xml:space="preserve"> GAZİOSMANPAŞA BLV. NO:56/A  ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -7484,6 +12089,21 @@
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -7507,6 +12127,21 @@
           <t>GAZİ                      MAHALLESİ ÖNDER CD NO:79/1B  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -7526,6 +12161,21 @@
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -7549,6 +12199,21 @@
           <t>GÖZTEPE MAHALLESİ MİTHATPAŞA CADDESİ RIFAT BEY BLOK  NO: 835B KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -7572,6 +12237,21 @@
           <t>GÜZELYALI                 MAHALLESİ MİTHATPAŞA CADDESİ NO:921/C  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -7591,6 +12271,21 @@
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7614,6 +12309,21 @@
           <t>ARAP HASAN MAHALLESİ İNÖNÜ CAD. NO:317 B KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -7637,6 +12347,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B114 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -7660,6 +12385,21 @@
           <t>DONANMACI                 MAHALLESİ KEMALPAŞA CAD. SEHER ÇELEBİ BLOK  NO: 123  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -7683,6 +12423,21 @@
           <t>DONANMACILAR MAH. MAHALLESİ KEMALPAŞA CAD.1717 SK. NO:132  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -7706,6 +12461,21 @@
           <t>SOĞUKPINAR MAHALLESİ ATATÜRK BULVARI İNG BANK BLOK  NO: 10A KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -7729,6 +12499,21 @@
           <t xml:space="preserve"> KONAK MAH. ANAFARTALAR CAD. NO: 7A İÇ KAPI NO: 7A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -7752,6 +12537,21 @@
           <t>KONAK                     MAHALLESİ MİLLİ KÜTÜPHANE CADDESİ NO:1/7 YAPIKREDI BLOK  NO: 1-7 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -7775,6 +12575,21 @@
           <t>ATAKENT MAHALLESİ C.DUDAYEV BULV. 6440/2 SK NO:113/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -7798,6 +12613,21 @@
           <t>KASIMPAŞA MAHALLESİ ATATÜRK CAD. NO: 15 MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -7821,6 +12651,21 @@
           <t>CAMİKEBİR                 MAHALLESİ ATATÜRK CADDESI NO:44  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -7844,6 +12689,21 @@
           <t>CAMİATİK MAHALLESİ ZAFER CAD. NO:3  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -7867,6 +12727,21 @@
           <t xml:space="preserve"> İNÖNÜ CAD. NO:148/A  ÜÇYOL KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -7890,6 +12765,21 @@
           <t xml:space="preserve"> ŞÜKRÜ SARAÇOĞLU CD NO:12/B  ÜÇYOL / İZMİR</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -7913,6 +12803,21 @@
           <t xml:space="preserve"> ATA CD. NO:97/A  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -7936,6 +12841,21 @@
           <t>KAZIMDİRİK MAHALLESİ M.KEMALPAŞA CAD. NO:25/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -7959,6 +12879,21 @@
           <t xml:space="preserve"> MEHMETÇİK BULVAR NO:16/A  ÜÇKUYULAR / İZMİR</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -7982,6 +12917,21 @@
           <t xml:space="preserve"> İNÖNÜ CD. NO:211/B  HATAY / İZMİR</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -8005,6 +12955,21 @@
           <t>ÇALIKUŞU MAHALLESİ ESKİİZMİR CAD. NO:167/B  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -8028,6 +12993,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAHALLESİ 6. SOK NO:2 MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -8047,6 +13027,21 @@
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -8070,6 +13065,21 @@
           <t>ERZENE MAHALLESİ KAZIM KARABEKİR CAD. NO:41/C  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -8093,6 +13103,21 @@
           <t xml:space="preserve"> MEHMET AKİF CADDESİ NO:34  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -8116,6 +13141,21 @@
           <t>AOSB MAHALLESİ 10030 SK. NO: 4  İÇ KAPI NO: 106 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -8139,6 +13179,21 @@
           <t xml:space="preserve"> YELALTI  ARGIN  NO: NO:2 / D:1  URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -8162,6 +13217,21 @@
           <t xml:space="preserve"> 10002 SOKAK NO:48  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -8185,6 +13255,21 @@
           <t xml:space="preserve"> ZAFER MAH. 810 SK. ZİRVE BLOK  NO: 36  İÇ KAPI NO: 17 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -8208,6 +13293,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/6 SK NO: 3A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -8231,6 +13331,21 @@
           <t>KARACAOĞLAN               MAHALLESİ 6167 SOKAK NO:40/D  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -8254,6 +13369,21 @@
           <t>MALTEPE MAHALLESİ MİTHATPAŞA CAD. NO:209/a  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -8277,6 +13407,21 @@
           <t xml:space="preserve"> ARMUTLU SANAYİ CAD. NO:88  ARMUTLU KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -8300,6 +13445,21 @@
           <t>AKALAN MAHALLESİ BAĞIMSIZLIK (KÜME EVLER)  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -8323,6 +13483,21 @@
           <t>YENİCE MAHALLESİ BELLEK SK NO:8  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -8346,6 +13521,21 @@
           <t>ADALET MAHALLESİ MANAS BULV.  FOLKART TOWERS BLOK  NO: 47B DAİRE:2601 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -8369,6 +13559,21 @@
           <t>TUNA                      MAHALLESİ 5501 SOKAK NO:1/G  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -8392,6 +13597,21 @@
           <t xml:space="preserve"> 10026 SK. NO:13  İTOB ORG. SAN. BÖLG. MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -8411,6 +13631,21 @@
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -8434,6 +13669,21 @@
           <t xml:space="preserve"> ATIFBEY MAH. 67 SK.  NO: 33  İÇ KAPI NO: 33 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -8457,6 +13707,21 @@
           <t>ZÜBEYDE HANIM MAHALLESİ 7448/4 SK NO: 33 B KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -8480,6 +13745,21 @@
           <t xml:space="preserve"> İTOB OSB MAH. 10005 SK. YÜCEMAK NO: 26 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -8503,6 +13783,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAH. 1145/1 SK.  NO: 55A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -8524,6 +13819,21 @@
       <c r="E354" t="inlineStr">
         <is>
           <t xml:space="preserve"> KÜLTÜR  1391  NO:NO:4/A KONAK/İZMİR  / </t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
         </is>
       </c>
     </row>

--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 2. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 2. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J278"/>
+  <dimension ref="A1:I278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="28" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
     <col width="147" customWidth="1" min="8" max="8"/>
     <col width="106" customWidth="1" min="9" max="9"/>
-    <col width="42" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>MANAVKUYU MAHALLESİ 613/2 SOK. KÜÇÜKLER Apt. NO: 6 B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>KAZIMDİRİK MAH. 372 SK. NO: 34/1A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>GÖLCÜK MH. MAHALLESİ 14005 SK. NO:16 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/1 SK NO:1/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>NARLI MAH. METİN OKTAY SK. ÇAĞRI NECİP NO: 13 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>AKDENİZ MAHALLESİ 1340 SK. NO: 23/201 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ NO:41/101 MEGAPOL TOWER BAYRAKLI BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ UNIVERSİADE CAD. NO:27 OLİMPİYAT KÖYÜ SİTESİ 55.BLOK İÇ KAPI NO: 8 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>75.YIL CUMHURİYET MAHALLESİ OVA SOKAK NO:9 /1 _ ADRES NO: 1423351673 OFİS VE İŞYERİ KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİTFETHİ BEY CADDESİ NO:55 HERİS TOWER BLOK İÇ KAPI NO: 091 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>OSMANGAZİ MAH. 598 SK. İ.BİLGE SİTESİ NO: 2B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>YÜZBAŞI ŞERAFETTİN MAH. 3959 SK. NO: 24A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>YILDIZ MAHALLESİ 200/15 SK. NO:1/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>KOZAĞAÇ MAHALLESİ 255 SK. NO:1/A/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>VALİ RAHMİ BEY MAHALLESİ MENDERES CAD. GÜLAY BLOK NO:107A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>ALAÇATI MAH. KEMALPAŞA CAD. NO: 84A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>KONAK MAH. 859 SK. SARAY İŞHANI NO: 5 İÇ KAPI NO: 501 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>ADATEPE MAHALLESİ YAHYA KEMAL BEYATLI CAD. NO:22 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ İZMİR ANKARA ASFALTI CAD. NO: 67/1 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>KEMALPAŞA MAHALLESİ 7416 SOKAK NO:15/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 239ZC BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>MENDERES MAH. VATAN CAD. NO: 42B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>KÜLTÜR MAHALLESİ ATATÜRK CAD. ÜLKÜ APT. NO: 214/3 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>YENİ MAHALLESİ HALİTBAĞI KIRÜSTÜ KÜMEEVLER MEVKİİ NO:24/24-1 BAĞYURDU KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>HALKAPINAR MAH. 1203/9 SK. MEYVA İŞMERKEZİ NO: 1P KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>KALABAK MAHALLESİ 3302 SK. NO: 13 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>BİRLİK MAHALLESİ KEMALPAŞA CADDESI NO: 231A İÇ KAPI NO: A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>EFELER MAHALLESİ MENDERES CADDESI NO: 217 A/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>DEDEBAŞI MAH. 6116 SK. NO: 9 İÇ KAPI NO: 13 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>ATATÜRK MAH. 220 SK. NO: 7A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>KEMALPAŞA MAHALLESİ 7102 SOKAK NO:6 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>LALE MAHALLESİ 3594 SOKAK NO:5/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>İTOB OSB MAH. İTOB ATATÜRK CAD. NO: 11 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3804 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>R.ŞEVKET İNCE MAH. 2148/11 SK. ANA HASTANE 1 NOLU BLOK NO: 3 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>ÜÇKUYULAR MAHALLESİ 69 SOKAK NO:27/7 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>TUNA MAH. 1710 SK. ERKMEN BLOK NO: 26A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>CAMİKEBİR MAHALLESİ 84/3 SK. NO:10 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>DÜZCE MAHALLESİ HÜRRİYET CAD. NO:27 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>TELEFERİK MAHALLESİ SAKARYA CADDESI NO:21/B BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>MANSUROĞLU MAH. 283/14 SK. A.A. İNCE SİTESİ NO: 4 İÇ KAPI NO: 20 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>ZAFER SB MAHALLESİ AYFER SK. NO: 13/-- GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>KONAK MAH. 878 SK. NO: 34 İÇ KAPI NO: MÜSTAKİL KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>KARACAOĞLAN MAH. 6169 SK. NO: 8 İÇ KAPI NO: 22 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>YALI MAHALLESİ 6499 SK. NO: 3 A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>YUNUS EMRE MAHALLESİ ŞEHİT PİLOT VOLKAN KOÇYİĞİT BULVARI NO: 17 İÇ KAPI NO: 101 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>AOSB MAHALLESİ 10025 SK. NO: 12/0 ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>AOSB MAHALLESİ 10016 SK. NO: 33 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>İTOB OSB MAH. 10014 SK. BİZEX NO: 13 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>ATAŞEHİR MAH. 8001/3 SK. NO: 51 İÇ KAPI NO: 9 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>ÖREN 75.YIL CUMHURİYET MAH. NİF ÇAYI SK. İDARİ BİNA VE İŞLETME NO: 13 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>CUMHURİYET MAHALLESİ NO:128/1 OVA KÜMLERİ MEVKİİ ÖREN KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>MANSUROĞLU MAH. 286 SK. NO: 5B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>AOSB MAHALLESİ M.KEMAL ATATÜRK BLV. ADNAN CİNSTAŞ APT. NO: 6 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 HİLLTOVVN AVM Sit. KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>KAZIMDİRİK MAHALLESİ 233 SOKAK 101 EVLER APT. NO: 1 B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>HALKAPINAR MAH. MÜRSELPAŞA BUL. NO: 166B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>GÜZELYALI MAH. MİTHATPAŞA CAD. NO: 965C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>ARAP HASAN MAH. İNÖNÜ CAD. NO: 319C İÇ KAPI NO: C KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>BASIN SİTESİ MAHALLESİ İNÖNÜ CAD. NO: 379 B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULV. NO:26/221 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>YİĞİTLER MAH. MENDERES CAD. BAYRAKLI NO: 234B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6159 SOK. MEHMET EMİN ARSLAN İŞ MERKEZİ Sit. B Apt. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>KARACAOĞLAN MAHALLESİ BORNOVA CAD. NO:9/6D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>ÇINARLI MAHALLESİ 1572 SK. NO:33 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>ŞEMİKLER MAHALLESİ ORDU BULVARI NO: 183A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>DEDEBAŞI MAH. ORDU BUL. NO: 99A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>SOĞUKKUYU MAHALLESİ GİRNE BULVARI SARI ZEYBEK BLOK NO: 218A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>IŞIKLAR MAH. 6016/6 SK. NO: 7 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>TUNA MAHALLESİ İBRAHİM YILMAZ SOKAK NO:23/A İŞHANI BLOK KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ 502 SK. NO:23/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>YENİŞEHİR MAH. 1145/1 SK. NO: 46A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>ALPASLAN MAHALLESİ 1620/1 SOK. İNŞAAT BLOK NO: 36A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>SEKİZ EYLÜL MAH. 5012 SK. DEPO NO: 30/3 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145/4 SK. NO: 6 A/A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>YALI MAHALLESİ 6404 SK. NO:17 DAİRE:2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>YENİKENT MAHALLESİ 75. YIL CUMHURİYET CD NO:134/2 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>ULAMIŞ MAHALLESİ ARAPLAR KÜME EVLERİ NO:62 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT. NO: 39/3408 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 12/2 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>KAZIMDİRİK MAHALLESİ 296/2 SK. NO:33 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CADDESİ NO:55 HERİS TOWER BLOK İÇ KAPI NO: 091 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>SAKARYA MAH. 803 SK. NO: 23 İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>BARBAROS MAH. 5454/4 SK. NO: 1A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>KEMALPAŞA MAHALLESİ 7403 SK. NO: 18/1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>AKDENİZ MAHALLESİ 1338 SOKAK Ş. ŞÜKRÜ İŞHANI BLOK NO: 1 İÇ KAPI NO: 403 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>YENİ MAHALLESİ HAYITLIK MEVKİİ ( KÜME EVLER ) NO: 5/1 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>GÜMÜŞPALA MAHALLESİ 7042 SOK. NO:31/1 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>75.YIL CUMHURİYET MAHALLESİ İZMİR ANKARA CAD. NO: 12/1 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>GÜNALTAY MAH. 4742/1 SK. NO: 24A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>HALKAPINAR MAH. 1203/9 SK. MEYVA İŞMERKEZİ BLOK NO: 1A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CAD. NO: 55/091 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/11 SOKAK NO: 5-7 İÇ KAPI NO: 211 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>DONANMACI MAH. HÜSEYİN ÇAĞLAYAN SK. NO: 38B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>MEHMET AKİF ERSOY MAH. 2. ÖTEYAKA KÜME EVLERİ NO: 11 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>SİNANCILAR MAHALLESİ NO:357 SİNANCILARKÖYYOLU( KÜME EVLER )18738725 SİT. KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>ADALET MAH. MAHALLESİ MANAS BLV NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>YALI MAHALLESİ 6497 SK. NO:25 KAT:2 DAİRE:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>ZAFER SB MAHALLESİ MÜMTAZ SOKAK NO:17 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ 2. ÖTEYAKA ( KÜME EVLER ) NO: 39 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>AKDENİZ MAHALLESİ CUMHURİYET BULVARI AYTEKIN IŞ MERKEZI Apt. NO: 71/401 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>EGEMENLİK MAH. 6108 SK. F.1 NO: 49/5J BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6167 SK. A BLOK APT. NO: 30 B/_ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>BAHRİYE ÜÇOK MAH. ATATÜRK BUL. NO: 49 İÇ KAPI NO: 2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>MANSUROĞLU MAH. 286/3 SK. NO: 14B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>BAĞYURDU YENİ MAHALLESİ OVA YOLU KÜME EVLERİ NO: 78 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>ZAFER SB MAHALLESİ NİLÜFER SK. NO: 15 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>ÇINARKÖY MAHALLESİ KEMALPAŞA ÇINARKÖY CADDESİ NO:2/A/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>KAZIMDİRİK MAHALLESİ FEVZİ ÇAKMAK CAD. TÜREGÜN İŞHANI SİT. NO: 2 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>BAHARİYE MAH. DOÇ. DR. BAHRİYE ÜÇOK BUL. NAZİFE BLOK NO: 4 İÇ KAPI NO: 10 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>BAĞYURDU YENİ MAHALLESİ İZMİR ANKARA CAD. NO: 4/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>MANSUROĞLU MAHALLESİ 286/1 SOK. NO:15/23 VERAPOL PLAZA BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>TUNA MAHALLESİ 5501 SOKAK NO:8 A /- _ ADRES NO: 2898100579 OFİS VE İŞYERİ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>TUNA MAHALLESİ 5501 SK. NO: 10 A/ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>HACI İSA MAH. 75.YIL CUMHURİYET CAD. NO: 9 İÇ KAPI NO: 6 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>BAĞYURDU YENİ MAH. OVA YOLU KÜME EVLERİ NO: 7/3A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>KÜLTÜR MAHALLESİ DR.MUSTAFA ENVER BEY CADDESİ ONUR BLOK NO: 5B İÇ KAPI NO: 5B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6172 SK NO:16/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>İÇMELER MAHALLESİ 1165/1 SK. NO: 21/ URLA/İZM URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>BOSTANLI MAH. 1810 SK. BAHTİYAR NO: 4B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>BOSTANLI MAH. 6346 SK. AYATA NO: 24 İÇ KAPI NO: 2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6590,11 +5954,6 @@
           <t>KAZIMDİRİK MAHALLESİ 284 SK. NO:2/715 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6638,11 +5997,6 @@
           <t>DEDEBAŞI MAH. ALİ ALP BÖKE CAD. EFELER BLOK NO: 153 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6686,11 +6040,6 @@
           <t>ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6734,11 +6083,6 @@
           <t>KOŞUKAVAK MAH. 4218/1 SK. C BLOK NO: 1D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6782,11 +6126,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6830,11 +6169,6 @@
           <t>YENİŞEHİR MAHALLESİ 1248 SOKAK NO:6/C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6878,11 +6212,6 @@
           <t>ÖREN 75.YIL CUMHURİYET MAHALLESİ OVA SOKAK NO:9 35733 NO:/ KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6926,11 +6255,6 @@
           <t>ÖREN 75. YIL CUMHURİYET MAH. OVA SOK. NO:9 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6974,11 +6298,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/1 SK NO: 13A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7022,11 +6341,6 @@
           <t>ATIFBEY MAHALLESİ 12 SK. NO:1/A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7070,11 +6384,6 @@
           <t>MAVİŞEHİR MAH. AZİZ NESİN BUL. NO: 26 İÇ KAPI NO: 123 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7118,11 +6427,6 @@
           <t>KONAK MAHALLESİ 873 SOKAK NO:15/C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7166,11 +6470,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145 SOKAK NO: 12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7214,11 +6513,6 @@
           <t>ATİLLA MAHALLESİ EŞREFPAŞA CADDESİ NO:308/B/0 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7262,11 +6556,6 @@
           <t>ZAFER SB MAH MAHALLESİ NİLÜFER SK NO:12 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7310,11 +6599,6 @@
           <t>KÖRFEZ MAHALLESİ 7383/2 SK. İDARECİLER SİTESİ C5 BLOK NO: 1M DAİRE:16 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7358,11 +6642,6 @@
           <t>UĞUR MUMCU MAHALLESİ 8965 SK. NO:2/A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7406,11 +6685,6 @@
           <t>85. YIL CUMHURİYET MAHALLESİ SANAYİ CADDESİ NO:61/1-2 ARMUTLU KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7454,11 +6728,6 @@
           <t>SİTELER MAHALLESİ MİTHATPAŞA CAD. NO:673/A GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7502,11 +6771,6 @@
           <t>ZAFER SB MAHALLESİ GÜNDÜZ SOK. NO: 20 İÇ KAPI NO: 8 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7550,11 +6814,6 @@
           <t>BARBAROS MAHALLESİ KUVA-İ MİLLİYE CD. NO:77 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7598,11 +6857,6 @@
           <t>ALSANCAK MAHALLESİ ATATÜRK CAD. KATİPOĞLU Apt. NO: 372 /1/2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7646,11 +6900,6 @@
           <t>BAHÇELİEVLER MAHALLESİ DOÇ. DR. BAHRİYE ÜÇOK BULVARI ATAÇELEBİ BLOK NO: 30A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7694,11 +6943,6 @@
           <t>KAZIMDİRİK MAHALLESİ MUSTAFA KEMAL CADDESI NO:139/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7742,11 +6986,6 @@
           <t>BAYRAKLI MAH. ORD. PROF. DR. EKREM AKURGAL SK. ORKİDE NO: 33 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7790,11 +7029,6 @@
           <t>GÖKDERE MAHALLESİ GÖKDERE CAD. NO:27/3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7838,11 +7072,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ ANSIZCA SANAYİ SİTESİ (KÜME EVLER) NO: 303 /1-/- KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7886,11 +7115,6 @@
           <t>KILIÇ REİS MAH. 304 SK. NO: 56A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7934,11 +7158,6 @@
           <t>EMEK MAH. 7243 SK. NO: 6 İÇ KAPI NO: 1 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7982,11 +7201,6 @@
           <t>HACI İSA MAH. 75.YIL CUMHURİYET CAD. NO: 5 İÇ KAPI NO: 2 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8030,11 +7244,6 @@
           <t>ERZENE MAH. GENÇLİK CAD. NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8078,11 +7287,6 @@
           <t>GÜRPINAR MAHALLESİ 7232/9 SK. NO:23/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8126,11 +7330,6 @@
           <t>AOSB MAHALLESİ 10006/1 SK. İZLAB APT. NO: 2/0 ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8174,11 +7373,6 @@
           <t>ARMUTLU 85.YIL CUMHURİYET MAHALLESİ SANAYİ CAD. NO: 29/1 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8222,11 +7416,6 @@
           <t>85. YIL CUMHURİYET MAHALLESİ SANAYİ CADDESİ NO:29/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8270,11 +7459,6 @@
           <t>ATATÜRK MAHALLESİ 27 SOK. NO:7 ULUCAK KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8318,11 +7502,6 @@
           <t>LATİFE HANIM MAH. 7683 SK. NO: 18 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8366,11 +7545,6 @@
           <t>YENİ GÜN MAHALLESİ GAZİOSMAN PAŞA BLV. NO:84/G TEZCAN İŞHANI BLOK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8414,11 +7588,6 @@
           <t>DONANMACI MAHALLESİ CEMAL GÜRSEL CADDESİ NO:240/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8462,11 +7631,6 @@
           <t>DEDEBAŞI MAHALLESİ 6120 SK. KEZBAN ŞEN Apt. NO: 3 A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8510,11 +7674,6 @@
           <t>YUNUS EMRE MAH. 7408/6 SK. NO: 43/4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8558,11 +7717,6 @@
           <t>İTOB OSB MAHALLESİ 10007 SK. NO:7 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8606,11 +7760,6 @@
           <t>YALI MAHALLESİ CAHER DUDAYEV BULVARI NO:119/C NUR Apt. KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8654,11 +7803,6 @@
           <t>YENİGÜN MAHALLESİ GAZİOSMANPAŞA BULVARI NO:86 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8702,11 +7846,6 @@
           <t>RAFETPAŞA MAHALLESİ 5368 SOKAK NO:6/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8750,11 +7889,6 @@
           <t>ARAP HASAN MAH. İNÖNÜ CAD. NO: 309B İÇ KAPI NO: B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8798,11 +7932,6 @@
           <t>KÜLTÜR MAH. PLEVNE BUL. GELİNCİK NO: 36A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8846,11 +7975,6 @@
           <t>GÖZTEPE MAH. MİTHATPAŞA CAD. SEVİM NO: 881B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8894,11 +8018,6 @@
           <t>ÖREN 75.YIL CUMHURİYET MAH. OVA SK. NO: 9 İÇ KAPI NO: 2 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8942,11 +8061,6 @@
           <t>ÖREN 75.YIL CUMHURİYET MAH. OVA SK. NO: 9 İÇ KAPI NO: 2 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8990,11 +8104,6 @@
           <t>ÖREN 75.YIL CUMHURİYET MAH. OVA SK. NO: 9 İÇ KAPI NO: 2 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9038,11 +8147,6 @@
           <t>BOSTANLI MAH. CEMAL BÜLBÜL SK. PEKŞEN NO: 21B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9086,11 +8190,6 @@
           <t>SEYHAN MAH. AYDIN HATBOYU CAD. NO: 536 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9134,11 +8233,6 @@
           <t>BAHÇELİEVLER MAHALLESİ ANADOLU CADDESİ NO: 323 İÇ KAPI NO: 20 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9182,11 +8276,6 @@
           <t>GÖLCÜKLER MAH. İSTASYON CAD. NO: 38/1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9230,11 +8319,6 @@
           <t>KEMALPAŞA OSB MAH. İZMİR ANKARA CAD. NO: 47 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9278,11 +8362,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145/4 SOKAK NO: 22 A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9326,11 +8405,6 @@
           <t>MERSİNLİ MAHALLESİ 1201/1 SK. NO: 2/10 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9374,11 +8448,6 @@
           <t>ULUCAK CUMHURİYET MAHALLESİ 9085 SK. NO: 4/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9422,11 +8491,6 @@
           <t>KORUTÜRK MAHALLESİ TAYFUN SOK. NO: 3 İÇ KAPI NO: 2 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9470,11 +8534,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9518,11 +8577,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/2 SOKAK NO:6/C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9566,11 +8620,6 @@
           <t>BUCAOSB MAHALLESİ 2/22 SK. NO: 7/0 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9614,11 +8663,6 @@
           <t>NARLI MAH. MİTHATPAŞA CAD. HAYRİYE NO: 331 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9662,11 +8706,6 @@
           <t>KONAK MAH. 846 SK. TEKANT İŞHANI BLOK NO: 44 İÇ KAPI NO: 41 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9710,11 +8749,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ İZMİR ANKARA ASFALTI CAD. NO: 65/1 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9758,11 +8792,6 @@
           <t>ALTINTAŞ MAHALLESİ ZAFER CAD. A BLOK APT. NO: 153 A URLA/İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9806,11 +8835,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145/2 SOKAK NO:25/C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9854,11 +8878,6 @@
           <t>GÜRPINAR MAHALLESİ 7236 SK NO:54/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9902,11 +8921,6 @@
           <t>MANSUROĞLU MAHALLESİ 295/2 SOK. NO:1/2 EGE SUN PLAZA BLOK İÇ KAPI NO: 37 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9950,11 +8964,6 @@
           <t>MANSUROĞLU MAHALLESİ 295/2 SK. NO: 1 /2/53 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9998,11 +9007,6 @@
           <t>KAZIMDİRİK MAHALLESİ 284 SK. NO:2/715 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10046,11 +9050,6 @@
           <t>EVKA-5 MAH. 8809 SK. YEŞİL İZMİR TİCARET MERKEZİ NO: 141 İÇ KAPI NO: 1B22 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10094,11 +9093,6 @@
           <t>ÇAMLIKULE MAHALLESİ GAZETECİ YAZAR İSMAİL SİVRİ BULV. NO:145/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10142,11 +9136,6 @@
           <t>KASIMPAŞA MAHALLESİ ATATÜRK CAD. NO: 99/11 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10190,11 +9179,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10238,11 +9222,6 @@
           <t>KEMALPAŞA MAH. 7405 SK. AYHAN ŞAHİN SİTESİ NO: 8 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10286,11 +9265,6 @@
           <t>M.FEVZİ ÇAKMAK MAH. 4102 SK. CAN YUVA SİTESİ CAN YUVA BLOK NO: 39/10 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10334,11 +9308,6 @@
           <t>ONUR MAH. ATA CAD. ÖZCAN NO: 112A BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10382,11 +9351,6 @@
           <t>ÇINAR MAH. 5003/2 SK. NO: 8 İÇ KAPI NO: 29 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10430,11 +9394,6 @@
           <t>YENİGÜN MAH. 254 SK. ARZUM NO: 22A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10478,11 +9437,6 @@
           <t>GAZİ OSMAN PAŞA MAH. 5227 SK. HACI MEFAİL OĞULLARI NO: 67A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10526,11 +9480,6 @@
           <t>SEVGİ MAH. ESKİİZMİR CAD. NO: 317A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10574,11 +9523,6 @@
           <t>ATİLLA MAH. EŞREFPAŞA CAD. KARADOĞAN NO: 362A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10622,11 +9566,6 @@
           <t>75. YIL CUMHURİYET MAHALLESİ KOCABAĞLAR SOK. NO:15 ÖREN KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10670,11 +9609,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/6 SOKAK NO:5/K KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10718,11 +9652,6 @@
           <t>ERGENE MAH. 552/2 SK. ATAK NO: 1B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10766,11 +9695,6 @@
           <t>IRMAK MAHALLESİ 97 SOKAK NO:27/1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10814,11 +9738,6 @@
           <t>YALI MAH. 6522 SK. NO: 3 İÇ KAPI NO: Z138 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10862,11 +9781,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ NO: 103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10910,11 +9824,6 @@
           <t>AOSB MAH. 10006/1 SK. NO: 2 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10958,11 +9867,6 @@
           <t>KÜLTÜR MAHALLESİ ZUHAL YORGANCIOĞLU SK. HANAY Apt. NO: 11/5 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11006,11 +9910,6 @@
           <t>ÖREN 75.YIL CUMHURİYET MAH. ÖREN CUMHURİYET MEY. NO: 13 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11054,11 +9953,6 @@
           <t>AKDENİZ MAH. ATATÜRK CAD. ANADOLU SIGORTA BLOK NO: 92 İÇ KAPI NO: 41 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11102,11 +9996,6 @@
           <t>ÜMİT MAH. KEMALPAŞA CAD. NO: 341 İÇ KAPI NO: Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11150,11 +10039,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11198,11 +10082,6 @@
           <t>ALAÇATI MAHALLESİ 12048 SK. NO: 1 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11246,11 +10125,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11294,11 +10168,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ 1. ÖTEKAYA SOKAK NO:65/a KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11342,11 +10211,6 @@
           <t>YUKARIKIZILCA MAHALLESİ NO:19 ATATÜRK KÜMEEVLER KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11390,11 +10254,6 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1 SOK. NO: 6 İÇ KAPI NO: 41 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11438,11 +10297,6 @@
           <t>TEPECİK MAH. KAVAKDERE CAD. ÇOBANLAR NARENCİYE BLOK NO: 66 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11486,11 +10340,6 @@
           <t>ZAFER SB MAHALLESİ MÜMTAZ SOKAK NO:13 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11534,11 +10383,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145/2 SOKAK NO:38 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11582,11 +10426,6 @@
           <t>SERİNTEPE MAH. KEMALPAŞA CAD. NO: 88A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11630,11 +10469,6 @@
           <t>KOCATEPE MAH. EŞREFPAŞA CAD. NO: 317 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11678,11 +10512,6 @@
           <t>HALKAPINAR MAH. 1202/6 SK. NO: 5F KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11726,11 +10555,6 @@
           <t>ÇAMTEPE MAH. MİTHATPAŞA CAD. NO: 281A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11774,11 +10598,6 @@
           <t>POLİGON MAHALLESİ İHSAN ALYANAK BLV. NO: 20D KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -11822,11 +10641,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145/5 SK. NO: 2 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11870,11 +10684,6 @@
           <t>BAHARİYE MAHALLESİ 1875 SK. ERKAN BLOK NO: 6B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11918,11 +10727,6 @@
           <t>SÜTÇÜLER MAH. KOCATEPE CAD. NO:16 A KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -11966,11 +10770,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145/4 SOKAK NO: 6/301 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12014,11 +10813,6 @@
           <t>AKDENİZ MAHALLESİ CUMHURİYET BLV. PAMUK PLAZA APT. NO: 45/7 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12062,11 +10856,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ UĞUR MUMCU CADDESI TURKUAZ SİTESİ NO: 40/6 İÇ KAPI NO: 6 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12110,11 +10899,6 @@
           <t>AKDENİZ MAH. ŞEHİT FETHİBEY CAD. PAMUK İŞHANI BLOK NO: 32 İÇ KAPI NO: 401 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12158,11 +10942,6 @@
           <t>YİĞİTLER MAHALLESİ MENDERES CADDESI NO:238/B ŞİRİNYER / İZMİR</t>
         </is>
       </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12206,11 +10985,6 @@
           <t>ALAÇATI MAHALLESİ KEMALPAŞA CAD. BUFE Apt. NO: 61 A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12254,11 +11028,6 @@
           <t>KAZIMDİRİK MAHALLESİ MUSTAFA KEMAL CADDESI SAGUN BLOK NO: 25B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12302,11 +11071,6 @@
           <t>İNKILAP MAHALLESİ MEHMET AKİF CAD. NO: 25B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12350,11 +11114,6 @@
           <t>GAZİ MAHALLESİ ÖNDER CD NO:79/1B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12398,11 +11157,6 @@
           <t>GÖZTEPE MAHALLESİ MİTHATPAŞA CADDESİ RIFAT BEY BLOK NO: 835B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12446,11 +11200,6 @@
           <t>GÜZELYALI MAHALLESİ MİTHATPAŞA CADDESİ NO:921/C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -12494,11 +11243,6 @@
           <t>ARAP HASAN MAHALLESİ İNÖNÜ CAD. NO:317 B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -12542,11 +11286,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B114 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -12590,11 +11329,6 @@
           <t>DONANMACI MAHALLESİ KEMALPAŞA CAD. SEHER ÇELEBİ BLOK NO: 123 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -12638,11 +11372,6 @@
           <t>DONANMACILAR MAH. MAHALLESİ KEMALPAŞA CAD.1717 SK. NO:132 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -12686,11 +11415,6 @@
           <t>SOĞUKPINAR MAHALLESİ ATATÜRK BULVARI İNG BANK BLOK NO: 10A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -12734,11 +11458,6 @@
           <t>KONAK MAH. ANAFARTALAR CAD. NO: 7A İÇ KAPI NO: 7A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -12782,11 +11501,6 @@
           <t>KONAK MAHALLESİ MİLLİ KÜTÜPHANE CADDESİ NO:1/7 YAPIKREDI BLOK NO: 1-7 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -12830,11 +11544,6 @@
           <t>ATAKENT MAHALLESİ C.DUDAYEV BULV. 6440/2 SK NO:113/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -12878,11 +11587,6 @@
           <t>KASIMPAŞA MAHALLESİ ATATÜRK CAD. NO: 15 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -12926,11 +11630,6 @@
           <t>CAMİKEBİR MAHALLESİ ATATÜRK CADDESI NO:44 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -12974,11 +11673,6 @@
           <t>CAMİATİK MAHALLESİ ZAFER CAD. NO:3 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13022,11 +11716,6 @@
           <t>KAZIMDİRİK MAHALLESİ M.KEMALPAŞA CAD. NO:25/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13070,11 +11759,6 @@
           <t>ÇALIKUŞU MAHALLESİ ESKİİZMİR CAD. NO:167/B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13118,11 +11802,6 @@
           <t>KEMALPAŞA MAHALLESİ 6. SOK NO:2 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -13166,11 +11845,6 @@
           <t>ERZENE MAHALLESİ KAZIM KARABEKİR CAD. NO:41/C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -13214,11 +11888,6 @@
           <t>AOSB MAHALLESİ 10030 SK. NO: 4 İÇ KAPI NO: 106 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -13262,11 +11931,6 @@
           <t>ZAFER MAH. 810 SK. ZİRVE BLOK NO: 36 İÇ KAPI NO: 17 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -13310,11 +11974,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/6 SK NO: 3A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -13358,11 +12017,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6167 SOKAK NO:40/D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -13406,11 +12060,6 @@
           <t>MALTEPE MAHALLESİ MİTHATPAŞA CAD. NO:209/a GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -13454,11 +12103,6 @@
           <t>AKALAN MAHALLESİ BAĞIMSIZLIK (KÜME EVLER) KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -13502,11 +12146,6 @@
           <t>YENİCE MAHALLESİ BELLEK SK NO:8 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -13550,11 +12189,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. FOLKART TOWERS BLOK NO: 47B DAİRE:2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -13598,11 +12232,6 @@
           <t>TUNA MAHALLESİ 5501 SOKAK NO:1/G BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -13646,11 +12275,6 @@
           <t>ATIFBEY MAH. 67 SK. NO: 33 İÇ KAPI NO: 33 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -13694,11 +12318,6 @@
           <t>ZÜBEYDE HANIM MAHALLESİ 7448/4 SK NO: 33 B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -13742,11 +12361,6 @@
           <t>İTOB OSB MAH. 10005 SK. YÜCEMAK NO: 26 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -13788,11 +12402,6 @@
       <c r="I278" s="2" t="inlineStr">
         <is>
           <t>YENİŞEHİR MAH. 1145/1 SK. NO: 55A KONAK / İZMİR</t>
-        </is>
-      </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>02 - KURUTULMUŞ MEYVE VE ÇEREZLER GRUBU</t>
         </is>
       </c>
     </row>
